--- a/src/test/resources/excel/test.xlsx
+++ b/src/test/resources/excel/test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DShaldin/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\getl\idea\getl\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC924E-2DA7-4F5A-A48A-391104B48B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="29700" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>a</t>
   </si>
@@ -42,18 +43,67 @@
   </si>
   <si>
     <t>str2</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>str3</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -74,13 +124,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -88,6 +147,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,49 +417,115 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
+      <c r="G4" s="1">
+        <v>44196</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44196.000694444447</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4.3090277777777776E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="G5" s="1">
+        <v>44197</v>
+      </c>
+      <c r="H5" s="5">
+        <v>44197.043090277781</v>
+      </c>
+      <c r="I5" s="6">
+        <v>8.5462962962962963E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44545</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/test.xlsx
+++ b/src/test/resources/excel/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\getl\idea\getl\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC924E-2DA7-4F5A-A48A-391104B48B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8869B463-9065-4B7A-907D-54ECD41376FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="29700" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>e</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="B3:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -449,13 +449,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -478,15 +478,15 @@
         <v>4.3090277777777776E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -507,7 +507,7 @@
         <v>8.5462962962962963E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
